--- a/docs/excelPlayground/emptyCopy.xlsx
+++ b/docs/excelPlayground/emptyCopy.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG4000\Desktop\comms\docs\excelPlayground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A241553F-EC17-48DF-876B-C432E4EA74A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D73E4E-0806-4DC0-8953-23C5D072C03C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>Count</t>
   </si>
@@ -482,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6CFABE-B520-458B-807B-76EBB7A64E59}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,4 +654,96 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6C0FE-C9D2-4B77-A5CF-E298AC22F6EE}">
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>